--- a/public/archivos/formato_carga_masiva_productos_tapices.xlsx
+++ b/public/archivos/formato_carga_masiva_productos_tapices.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\Desktop\789.mx\Intercorp\public\archivos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE51F29F-F9B4-4F37-B383-5DF237216697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
-  <si>
-    <t>ejemplo_formato_carga_masiva_productos_tapices_-_formato_carga_masiva_productos_tapices (1)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Clave</t>
   </si>
@@ -53,15 +59,24 @@
   </si>
   <si>
     <t>Tamaño de rollo</t>
+  </si>
+  <si>
+    <t>Precio Residencial</t>
+  </si>
+  <si>
+    <t>Precio Comercial</t>
+  </si>
+  <si>
+    <t>Precio Distribuidor</t>
+  </si>
+  <si>
+    <t>ejemplo_formato_carga_masiva_productos_tapices_-_formato_carga_masiva_productos_tapices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -74,7 +89,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -149,28 +164,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -180,25 +195,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -397,7 +472,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -415,7 +490,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -444,7 +519,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -469,7 +544,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -494,7 +569,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -519,7 +594,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -544,7 +619,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -569,7 +644,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -594,7 +669,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -619,7 +694,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -644,7 +719,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -657,9 +732,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -676,7 +757,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -694,7 +775,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -719,7 +800,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -744,7 +825,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -769,7 +850,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +875,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -819,7 +900,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +925,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -869,7 +950,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +975,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,7 +1000,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -932,9 +1013,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -948,7 +1035,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -966,7 +1053,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,7 +1082,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,7 +1107,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,7 +1132,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +1157,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +1182,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1207,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1145,7 +1232,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +1257,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1195,7 +1282,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,107 +1295,132 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.17188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.17188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.35156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6719" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1719" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.3516" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:16" ht="27.6" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" ht="20.05" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="M2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="5">
+      <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s" s="5">
+      <c r="P2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="M2" t="s" s="5">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/public/archivos/formato_carga_masiva_productos_tapices.xlsx
+++ b/public/archivos/formato_carga_masiva_productos_tapices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\Desktop\789.mx\Intercorp\public\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE51F29F-F9B4-4F37-B383-5DF237216697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE28AA2-602A-4D2C-8356-183514093F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Clave</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>ejemplo_formato_carga_masiva_productos_tapices_-_formato_carga_masiva_productos_tapices</t>
+  </si>
+  <si>
+    <t>Precio Arquitecto</t>
+  </si>
+  <si>
+    <t>Repeat HV</t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1323,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1329,23 +1335,24 @@
     <col min="2" max="2" width="9.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.21875" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.33203125" style="1"/>
+    <col min="17" max="17" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.6" customHeight="1">
+    <row r="1" spans="1:18" ht="27.6" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1365,7 +1372,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1388,31 +1395,37 @@
         <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/public/archivos/formato_carga_masiva_productos_tapices.xlsx
+++ b/public/archivos/formato_carga_masiva_productos_tapices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\Desktop\789.mx\Intercorp\public\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE28AA2-602A-4D2C-8356-183514093F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A05269-0FA9-4755-AB2E-75C1C1DB7477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Clave</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Repeat HV</t>
+  </si>
+  <si>
+    <t>Unidad de medida</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1326,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:R2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1348,11 +1351,12 @@
     <col min="15" max="15" width="15.21875" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.33203125" style="1"/>
+    <col min="18" max="18" width="13.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.6" customHeight="1">
+    <row r="1" spans="1:19" ht="27.6" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1372,7 +1376,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1425,6 +1429,9 @@
         <v>12</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>18</v>
       </c>
     </row>

--- a/public/archivos/formato_carga_masiva_productos_tapices.xlsx
+++ b/public/archivos/formato_carga_masiva_productos_tapices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\Desktop\789.mx\Intercorp\public\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A05269-0FA9-4755-AB2E-75C1C1DB7477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C4A46A-7AED-49F6-A939-9E5FA17C17C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Clave</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Unidad de medida</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
   </si>
 </sst>
 </file>
@@ -1326,10 +1329,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1356,7 +1359,7 @@
     <col min="20" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.6" customHeight="1">
+    <row r="1" spans="1:20" ht="27.6" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1376,7 +1379,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1433,6 +1436,9 @@
       </c>
       <c r="S2" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
